--- a/sample_TEM_measurements.xlsx
+++ b/sample_TEM_measurements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/ben_stordy_mail_utoronto_ca/Documents/Data/INBS-calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bpstordy/Documents/Academic/OneDrive/OneDrive - University of Toronto/Data/INBS-calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_926D448EFE47AB3C24FB9E31F02D62B15030CA29" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{E002431D-AA0E-B448-93E6-3B1A3A45B372}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_926D448EFE47AB3C24FB9E31F02D62B15030CA29" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{CCCC6F5B-F56B-A442-9186-418FD6153C64}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFB878F-0BC9-8943-88D3-521ADD272D56}">
   <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3121,6 +3121,9 @@
       <c r="C248">
         <v>518.48</v>
       </c>
+      <c r="D248">
+        <v>100</v>
+      </c>
     </row>
     <row r="249" spans="1:4">
       <c r="B249">
@@ -3253,6 +3256,9 @@
       </c>
       <c r="C262">
         <v>773.81200000000001</v>
+      </c>
+      <c r="D262">
+        <v>200</v>
       </c>
     </row>
     <row r="263" spans="1:4">
